--- a/BestBuyCapstoneProject/target/test-classes/TestData.xlsx
+++ b/BestBuyCapstoneProject/target/test-classes/TestData.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAT-Guvi\BestBuyCapstoneProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049D872-70EE-4B27-894B-9564916BDE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C899061-1360-4B52-9508-B37FFF129314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpData" sheetId="1" r:id="rId1"/>
     <sheet name="LoginData" sheetId="2" r:id="rId2"/>
+    <sheet name="MenuValidation" sheetId="3" r:id="rId3"/>
+    <sheet name="BotttomLinks" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>firstname</t>
   </si>
@@ -52,17 +55,143 @@
     <t>aswinkumar_r@outlook.com</t>
   </si>
   <si>
-    <t>Welcome@123</t>
-  </si>
-  <si>
     <t>7010778832</t>
+  </si>
+  <si>
+    <t>Missisippi@123</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Top Deals</t>
+  </si>
+  <si>
+    <t>Top Deals and Featured Offers on Electronics - Best Buy</t>
+  </si>
+  <si>
+    <t>Best Buy | Official Online Store | Shop Now &amp; Save</t>
+  </si>
+  <si>
+    <t>Deal of the Day</t>
+  </si>
+  <si>
+    <t>Yes, Best Buy Sells That</t>
+  </si>
+  <si>
+    <t>Yes, Best Buy Sells That – Best Buy</t>
+  </si>
+  <si>
+    <t>My Best Buy Memberships</t>
+  </si>
+  <si>
+    <t>Credit Cards</t>
+  </si>
+  <si>
+    <t>Best Buy Credit Card: Rewards &amp; Financing</t>
+  </si>
+  <si>
+    <t>Gift Cards</t>
+  </si>
+  <si>
+    <t>Gifts Cards and E-Gift Cards - Best Buy</t>
+  </si>
+  <si>
+    <t>Gift Ideas</t>
+  </si>
+  <si>
+    <t>Gift Ideas 2024: Best Gifts to Give This Year - Best Buy</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Accessibility - Best Buy</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>BestBuy.com Terms and Conditions</t>
+  </si>
+  <si>
+    <t>Privacy Policy Hub - Best Buy</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>State Privacy Rights - Best Buy</t>
+  </si>
+  <si>
+    <t>State Privacy Rights</t>
+  </si>
+  <si>
+    <t>Interest-Based Ads</t>
+  </si>
+  <si>
+    <t>Interest-Based Ads - Best Buy</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>aswin</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>90 Bedford st corner of Groove st</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>5555551234</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>test16@guvi16.com</t>
+  </si>
+  <si>
+    <t>Guvitest@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +203,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,11 +243,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +559,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -420,25 +568,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FF5AEA81-B1EC-4B5F-944D-D390A5945A3F}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{0382ADE1-AA78-4457-BD20-3D3262CE7769}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{FF5AEA81-B1EC-4B5F-944D-D390A5945A3F}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{B7297D03-99F7-439E-8AF2-A1BF55797E94}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{C5BDCF33-B17D-4F0C-AAF3-05BA27DFB2F6}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{7F15D473-5448-4C3C-810F-19A4E2A46B81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -446,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D674239-C6F7-4065-B025-3A6384418800}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,20 +625,26 @@
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -481,4 +654,229 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BE8D1B-381F-4918-ADA3-1DB3283805DC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F653F8EE-62FC-4A53-BCCE-38E20A8868F4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEAE6C0-BFCF-4BF5-9BA1-7144D57B214C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{11E78E3D-D3E0-4C5B-B190-917F86E66079}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>